--- a/results/parity_opp_update_2018-08-28/opp_fixed/propublica-recidivism_sex _mean_std.xlsx
+++ b/results/parity_opp_update_2018-08-28/opp_fixed/propublica-recidivism_sex _mean_std.xlsx
@@ -133,16 +133,16 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0420980064523338</v>
+        <v>0.027182599070436197</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8864967079</v>
+        <v>0.8604650741</v>
       </c>
       <c r="E2" t="n">
-        <v>0.011938461742404661</v>
+        <v>0.006138401231899231</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6320855614</v>
+        <v>0.6743315508</v>
       </c>
     </row>
     <row r="3">
@@ -153,16 +153,16 @@
         <v>11</v>
       </c>
       <c r="C3" t="n">
-        <v>0.045221169558903325</v>
+        <v>0.07749156151111497</v>
       </c>
       <c r="D3" t="n">
-        <v>0.783548276</v>
+        <v>0.8661052765</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0086758663128215</v>
+        <v>0.051006974217686026</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6254739913</v>
+        <v>0.6123480799</v>
       </c>
     </row>
     <row r="4">
@@ -173,16 +173,16 @@
         <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04538539988877567</v>
+        <v>0.044200680248165154</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8560038815</v>
+        <v>0.84420834</v>
       </c>
       <c r="E4" t="n">
-        <v>0.005614452845694569</v>
+        <v>0.007458447391590045</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6521147302</v>
+        <v>0.6745746233000001</v>
       </c>
     </row>
     <row r="5">
